--- a/src/brute force/always_hit_results/always_hit_results.xlsx
+++ b/src/brute force/always_hit_results/always_hit_results.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test9" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test8" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,42 +472,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 7 of Clubs, 4 of Clubs, 6 of Clubs, 9 of Spades]</t>
+          <t>[6 of Spades, 4 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[King of Spades, 3 of Clubs, 7 of Spades]</t>
+          <t>[7 of Clubs, 2 of Diamonds, 7 of Diamonds, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 2 of Clubs, Jack of Hearts, Queen of Spades]</t>
+          <t>[7 of Diamonds, 8 of Clubs, 3 of Spades, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[4 of Spades, 1 of Spades, Queen of Diamonds, 6 of Diamonds]</t>
+          <t>[6 of Clubs, 2 of Clubs, 8 of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,19 +518,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Jack of Spades]</t>
+          <t>[4 of Spades, 10 of Hearts, 6 of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 6 of Hearts, 10 of Diamonds]</t>
+          <t>[Jack of Spades, 5 of Diamonds, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -541,42 +541,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1 of Spades, 8 of Spades]</t>
+          <t>[Queen of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 9 of Diamonds]</t>
+          <t>[Queen of Diamonds, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 2 of Clubs, 4 of Spades, King of Clubs]</t>
+          <t>[3 of Clubs, Queen of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 8 of Diamonds, Queen of Diamonds]</t>
+          <t>[4 of Spades, 10 of Clubs, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -587,42 +587,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3 of Spades, 10 of Clubs, 1 of Diamonds, 6 of Spades]</t>
+          <t>[Jack of Clubs, 2 of Hearts, 4 of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[7 of Spades, 8 of Hearts, 5 of Hearts]</t>
+          <t>[8 of Diamonds, 5 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Spades, King of Diamonds]</t>
+          <t>[9 of Spades, 7 of Clubs, 2 of Spades, 1 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 5 of Spades, 6 of Clubs]</t>
+          <t>[8 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -633,88 +633,88 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[King of Hearts, King of Diamonds]</t>
+          <t>[Jack of Spades, 6 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 8 of Spades, King of Hearts]</t>
+          <t>[9 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 2 of Spades, Queen of Clubs]</t>
+          <t>[5 of Hearts, 9 of Clubs, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[3 of Hearts, King of Spades, 10 of Spades]</t>
+          <t>[7 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Jack of Clubs, 10 of Clubs]</t>
+          <t>[4 of Hearts, 3 of Hearts, 6 of Hearts, 2 of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[5 of Spades, 5 of Hearts, 1 of Diamonds]</t>
+          <t>[9 of Diamonds, 7 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, Queen of Hearts, 4 of Diamonds, Jack of Diamonds]</t>
+          <t>[Queen of Spades, 3 of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 1 of Clubs]</t>
+          <t>[5 of Hearts, 2 of Diamonds, 8 of Hearts, 1 of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 6 of Spades, 7 of Hearts, 10 of Spades]</t>
+          <t>[8 of Spades, Queen of Diamonds, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[King of Clubs, 1 of Hearts]</t>
+          <t>[3 of Diamonds, 1 of Diamonds, 10 of Hearts, 2 of Clubs, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -748,19 +748,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 3 of Hearts, 3 of Diamonds, 2 of Hearts, 4 of Hearts]</t>
+          <t>[5 of Diamonds, 1 of Hearts, 3 of Clubs, 9 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 10 of Diamonds]</t>
+          <t>[King of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -771,42 +771,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 5 of Diamonds, 5 of Clubs, 9 of Hearts]</t>
+          <t>[10 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 9 of Diamonds, 9 of Spades]</t>
+          <t>[King of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 7 of Diamonds, Jack of Diamonds]</t>
+          <t>[9 of Hearts, 5 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 6 of Diamonds, 8 of Diamonds]</t>
+          <t>[5 of Clubs, Queen of Hearts, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -815,38 +815,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 4 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>19</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>% 25.00</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,431 +827,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Hand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Hand</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 3 of Hearts, 4 of Spades, 1 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, Queen of Diamonds, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 6 of Diamonds, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[Jack of Hearts, 2 of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 3 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[9 of Spades, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 2 of Clubs, 6 of Diamonds, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 4 of Diamonds, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, King of Spades]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 3 of Spades, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 1 of Clubs, 4 of Hearts, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, Jack of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, 5 of Diamonds, 9 of Spades, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, Jack of Hearts, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>26</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, Queen of Hearts, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 1 of Diamonds, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>26</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, Queen of Clubs, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 8 of Hearts, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>28</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 4 of Clubs, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 5 of Spades, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 6 of Spades, 3 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 7 of Diamonds, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>24</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 5 of Clubs, 7 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 8 of Clubs, 2 of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>19</v>
-      </c>
-      <c r="D15" t="n">
-        <v>23</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[6 of Spades, 5 of Clubs, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 7 of Clubs, 7 of Diamonds, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>21</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[Jack of Diamonds, 8 of Spades, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 6 of Clubs, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>28</v>
-      </c>
-      <c r="D17" t="n">
-        <v>18</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>% 37.50</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1322,19 +870,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[2 of Spades, Jack of Diamonds, 2 of Diamonds, 9 of Diamonds]</t>
+          <t>[6 of Diamonds, 8 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 1 of Clubs, 2 of Clubs, 6 of Diamonds, Queen of Hearts]</t>
+          <t>[1 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1345,39 +893,431 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 5 of Spades, 4 of Hearts]</t>
+          <t>[Queen of Clubs, 5 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 4 of Spades, Jack of Hearts, King of Diamonds]</t>
+          <t>[Queen of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 2 of Hearts, 7 of Clubs, King of Spades]</t>
+          <t>[6 of Clubs, 5 of Spades, 7 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 7 of Diamonds, King of Clubs]</t>
+          <t>[1 of Hearts, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 6 of Hearts, 4 of Spades, 3 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 2 of Clubs, 8 of Clubs, 1 of Spades, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 5 of Hearts, 1 of Spades, King of Hearts, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[4 of Spades, King of Diamonds, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, Jack of Clubs, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 8 of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 2 of Spades, 10 of Clubs, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 2 of Diamonds, 6 of Diamonds, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 7 of Clubs, 4 of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 7 of Hearts, 9 of Hearts, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 8 of Spades, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 4 of Hearts, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 8 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, Jack of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 5 of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 9 of Clubs, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 8 of Spades, 6 of Spades, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[King of Clubs, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 6 of Hearts, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 5 of Spades, 7 of Diamonds, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 5 of Diamonds, Jack of Diamonds, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>26</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Player Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 1 of Spades, Jack of Clubs, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, Jack of Hearts, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 3 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 2 of Diamonds, 4 of Diamonds, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 10 of Clubs, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>22</v>
@@ -1391,42 +1331,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 1 of Hearts]</t>
+          <t>[8 of Hearts, King of Clubs, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[9 of Hearts, King of Spades]</t>
+          <t>[9 of Diamonds, 10 of Spades]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3 of Spades, 4 of Diamonds, Jack of Clubs, 3 of Hearts]</t>
+          <t>[9 of Spades, 8 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, Queen of Clubs]</t>
+          <t>[10 of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1437,42 +1377,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Hearts, Queen of Clubs, 6 of Spades]</t>
+          <t>[7 of Diamonds, 6 of Spades, 3 of Hearts, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 4 of Hearts, 3 of Hearts, 7 of Diamonds]</t>
+          <t>[10 of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[9 of Spades, 2 of Hearts, 5 of Diamonds, Jack of Hearts]</t>
+          <t>[4 of Clubs, 5 of Clubs, 6 of Diamonds, 4 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 5 of Clubs, 10 of Clubs]</t>
+          <t>[7 of Spades, 5 of Diamonds, 1 of Hearts, 3 of Diamonds, 4 of Spades]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1483,42 +1423,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[7 of Spades, 1 of Clubs, 1 of Spades]</t>
+          <t>[9 of Clubs, Jack of Hearts, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[8 of Hearts, King of Diamonds]</t>
+          <t>[King of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 8 of Hearts, 5 of Diamonds]</t>
+          <t>[10 of Hearts, 3 of Spades, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[10 of Spades, 3 of Clubs, 1 of Hearts, Queen of Diamonds]</t>
+          <t>[King of Spades, 3 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1529,19 +1469,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 10 of Hearts, Queen of Spades]</t>
+          <t>[9 of Hearts, King of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 of Spades, 10 of Spades, 8 of Spades]</t>
+          <t>[King of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1552,19 +1492,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8 of Spades, 8 of Clubs, 6 of Clubs]</t>
+          <t>[2 of Clubs, Queen of Clubs, 4 of Hearts, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 5 of Spades, 8 of Clubs]</t>
+          <t>[9 of Clubs, 5 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1575,103 +1515,92 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[9 of Spades, 4 of Clubs, 8 of Diamonds]</t>
+          <t>[7 of Hearts, 6 of Diamonds, 3 of Diamonds, 3 of Clubs, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, Jack of Diamonds]</t>
+          <t>[2 of Spades, 8 of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1 of Spades, 2 of Clubs, 5 of Clubs, King of Hearts, 10 of Hearts]</t>
+          <t>[King of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[10 of Clubs, Jack of Clubs]</t>
+          <t>[King of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Spades, 3 of Diamonds, 7 of Spades]</t>
+          <t>[7 of Hearts, 10 of Diamonds, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[3 of Spades, 6 of Diamonds, 4 of Clubs, 7 of Hearts]</t>
+          <t>[Queen of Hearts, 2 of Spades, 1 of Clubs, 2 of Diamonds, 5 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
         <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 7 of Clubs, 9 of Clubs]</t>
+          <t>[6 of Clubs, Queen of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[6 of Clubs, King of Clubs, 6 of Spades]</t>
+          <t>[2 of Hearts, 6 of Spades, 4 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>% 33.33</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1724,65 +1653,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 2 of Hearts, 3 of Spades, 5 of Clubs]</t>
+          <t>[4 of Spades, 3 of Diamonds, 2 of Diamonds, 9 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Diamonds, 5 of Diamonds, 10 of Spades]</t>
+          <t>[5 of Spades, 2 of Clubs, 4 of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Spades, King of Diamonds]</t>
+          <t>[1 of Clubs, 8 of Spades, 9 of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 1 of Clubs]</t>
+          <t>[1 of Spades, 7 of Spades]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 8 of Hearts, 8 of Clubs]</t>
+          <t>[8 of Hearts, 8 of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 7 of Spades, Jack of Clubs]</t>
+          <t>[4 of Hearts, 3 of Spades, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1793,65 +1722,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, Queen of Clubs]</t>
+          <t>[6 of Diamonds, 2 of Hearts, 8 of Clubs, 3 of Hearts, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 7 of Hearts, 10 of Clubs]</t>
+          <t>[10 of Diamonds, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[King of Spades, 6 of Diamonds, 3 of Clubs]</t>
+          <t>[9 of Hearts, 3 of Clubs, 5 of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 5 of Clubs, 5 of Spades]</t>
+          <t>[5 of Hearts, 3 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 3 of Diamonds, 5 of Hearts]</t>
+          <t>[3 of Diamonds, 9 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 6 of Hearts, 5 of Hearts]</t>
+          <t>[9 of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1862,42 +1791,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 8 of Hearts, 3 of Hearts, Jack of Hearts]</t>
+          <t>[3 of Hearts, Queen of Hearts, 2 of Spades, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[9 of Spades, 1 of Diamonds]</t>
+          <t>[King of Spades, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, Queen of Spades, 7 of Hearts]</t>
+          <t>[7 of Hearts, 5 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[8 of Spades, Jack of Diamonds]</t>
+          <t>[7 of Hearts, 4 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1908,42 +1837,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Spades, Queen of Clubs, 7 of Clubs]</t>
+          <t>[Queen of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 4 of Hearts, 10 of Diamonds, 4 of Diamonds]</t>
+          <t>[7 of Diamonds, 7 of Spades, 4 of Hearts]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Spades, 9 of Hearts, 9 of Clubs]</t>
+          <t>[King of Clubs, 8 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 1 of Hearts]</t>
+          <t>[10 of Diamonds, 6 of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1954,19 +1883,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 9 of Spades, 10 of Hearts]</t>
+          <t>[Jack of Spades, 6 of Clubs, 2 of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 4 of Spades, Queen of Hearts]</t>
+          <t>[5 of Diamonds, 2 of Hearts, 7 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1977,16 +1906,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, King of Diamonds, King of Clubs]</t>
+          <t>[7 of Clubs, 5 of Spades, 4 of Spades, 1 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 9 of Diamonds]</t>
+          <t>[King of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
         <v>20</v>
@@ -2000,65 +1929,65 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Jack of Spades, Queen of Diamonds]</t>
+          <t>[4 of Clubs, 6 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 7 of Clubs]</t>
+          <t>[8 of Diamonds, 2 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 1 of Spades, Queen of Spades, King of Clubs]</t>
+          <t>[1 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[8 of Spades, 6 of Diamonds, 1 of Diamonds, 9 of Clubs]</t>
+          <t>[Jack of Clubs, 6 of Spades, 2 of Clubs]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 2 of Spades, 7 of Spades]</t>
+          <t>[Jack of Diamonds, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 4 of Diamonds, 10 of Spades]</t>
+          <t>[Queen of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2069,57 +1998,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[2 of Clubs, Jack of Diamonds, King of Hearts]</t>
+          <t>[9 of Clubs, 10 of Spades, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[6 of Spades, 6 of Clubs, 3 of Spades, 4 of Hearts]</t>
+          <t>[6 of Diamonds, Jack of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 10 of Diamonds, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 2 of Diamonds, 3 of Clubs, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>19</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>% 35.29</t>
         </is>
       </c>
     </row>
@@ -2172,42 +2067,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 1 of Diamonds]</t>
+          <t>[Jack of Diamonds, Jack of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[10 of Hearts, Jack of Clubs]</t>
+          <t>[7 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 4 of Clubs, Queen of Diamonds]</t>
+          <t>[5 of Spades, 2 of Hearts, 9 of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 2 of Spades, 1 of Hearts, 4 of Diamonds]</t>
+          <t>[4 of Clubs, King of Diamonds, 1 of Hearts, 4 of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2218,42 +2113,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[6 of Clubs, Jack of Diamonds, 8 of Diamonds]</t>
+          <t>[7 of Clubs, 2 of Diamonds, 1 of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 5 of Spades, King of Spades]</t>
+          <t>[10 of Clubs, 8 of Spades]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 4 of Diamonds, 6 of Clubs, 2 of Clubs, 8 of Clubs]</t>
+          <t>[3 of Clubs, King of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 7 of Clubs]</t>
+          <t>[8 of Diamonds, 4 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2264,19 +2159,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[7 of Spades, 3 of Diamonds, 6 of Hearts, Queen of Diamonds]</t>
+          <t>[10 of Spades, 5 of Diamonds, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[9 of Spades, King of Diamonds]</t>
+          <t>[6 of Diamonds, 10 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2287,39 +2182,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 2 of Hearts, 1 of Hearts, King of Hearts]</t>
+          <t>[5 of Clubs, 6 of Spades, 5 of Hearts, 1 of Clubs, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 6 of Diamonds, 1 of Spades, 7 of Spades]</t>
+          <t>[9 of Hearts, 2 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 3 of Clubs, Queen of Clubs, 3 of Spades, 10 of Spades]</t>
+          <t>[Queen of Hearts, 9 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 10 of Spades]</t>
+          <t>[3 of Spades, 7 of Diamonds, King of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -2333,88 +2228,88 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 9 of Clubs, Queen of Hearts]</t>
+          <t>[4 of Clubs, 3 of Diamonds, 4 of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 4 of Spades, 5 of Spades]</t>
+          <t>[2 of Spades, 10 of Diamonds, 3 of Clubs, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[10 of Clubs, Jack of Spades]</t>
+          <t>[King of Hearts, 9 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 7 of Hearts, King of Clubs]</t>
+          <t>[6 of Clubs, 8 of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 4 of Hearts, Queen of Clubs]</t>
+          <t>[Jack of Diamonds, 9 of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[8 of Spades, 8 of Hearts, 6 of Hearts]</t>
+          <t>[Jack of Hearts, 6 of Clubs, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
         <v>21</v>
       </c>
-      <c r="D11" t="n">
-        <v>22</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Jack of Diamonds, Jack of Clubs]</t>
+          <t>[Queen of Diamonds, 7 of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 2 of Spades, 6 of Spades]</t>
+          <t>[1 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2425,19 +2320,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 2 of Hearts, 1 of Diamonds, King of Spades, 7 of Clubs]</t>
+          <t>[8 of Hearts, Jack of Hearts, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 1 of Spades]</t>
+          <t>[1 of Diamonds, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2448,19 +2343,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 5 of Diamonds, 9 of Spades]</t>
+          <t>[2 of Clubs, 8 of Diamonds, 2 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 8 of Clubs, 8 of Spades]</t>
+          <t>[3 of Hearts, 4 of Spades, 7 of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2471,19 +2366,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 5 of Hearts, 4 of Spades, Jack of Hearts]</t>
+          <t>[6 of Hearts, 5 of Spades, 8 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 6 of Diamonds, 5 of Hearts]</t>
+          <t>[1 of Clubs, 6 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2494,19 +2389,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 3 of Spades, King of Clubs, 2 of Diamonds, 7 of Hearts]</t>
+          <t>[10 of Diamonds, 8 of Hearts, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 10 of Clubs, 6 of Spades]</t>
+          <t>[5 of Clubs, 5 of Diamonds, King of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2515,13 +2410,25 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[3 of Spades, King of Spades, 4 of Diamonds, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 3 of Hearts, Jack of Spades, 1 of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>% 6.67</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2574,65 +2481,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1 of Spades, 3 of Diamonds, 9 of Hearts, 6 of Clubs]</t>
+          <t>[2 of Hearts, 7 of Spades, 3 of Spades, King of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Diamonds, 6 of Hearts]</t>
+          <t>[2 of Spades, 5 of Diamonds, 2 of Clubs, 5 of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 2 of Spades, 1 of Spades, 5 of Spades]</t>
+          <t>[7 of Diamonds, 1 of Spades, King of Diamonds, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 5 of Hearts, Jack of Clubs]</t>
+          <t>[6 of Hearts, 4 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Spades, 4 of Diamonds, 3 of Clubs, Queen of Clubs]</t>
+          <t>[9 of Hearts, King of Clubs, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[10 of Spades, King of Diamonds]</t>
+          <t>[King of Hearts, 6 of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2643,19 +2550,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Spades, 3 of Spades, Queen of Hearts, 8 of Hearts]</t>
+          <t>[9 of Spades, 6 of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 7 of Hearts, 1 of Diamonds]</t>
+          <t>[5 of Hearts, 2 of Spades, 4 of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2666,19 +2573,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 2 of Diamonds, Jack of Hearts]</t>
+          <t>[3 of Diamonds, 4 of Diamonds, Queen of Clubs, 2 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, King of Hearts]</t>
+          <t>[10 of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2689,39 +2596,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[4 of Clubs, Jack of Clubs, 9 of Diamonds]</t>
+          <t>[Queen of Hearts, 3 of Diamonds, 8 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Diamonds, King of Spades]</t>
+          <t>[1 of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 1 of Diamonds]</t>
+          <t>[Jack of Diamonds, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 1 of Hearts]</t>
+          <t>[8 of Diamonds, King of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
@@ -2735,65 +2642,65 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 4 of Spades, 10 of Diamonds]</t>
+          <t>[5 of Hearts, 9 of Diamonds, 4 of Clubs, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[8 of Spades, 8 of Diamonds, 9 of Spades]</t>
+          <t>[Jack of Clubs, 6 of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 10 of Spades]</t>
+          <t>[6 of Spades, 3 of Hearts, 10 of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[7 of Spades, 5 of Diamonds, 10 of Hearts]</t>
+          <t>[Jack of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[King of Clubs, 4 of Hearts, King of Hearts]</t>
+          <t>[Jack of Spades, 4 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Queen of Clubs]</t>
+          <t>[Queen of Clubs, 4 of Hearts, 3 of Hearts]</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2804,42 +2711,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 2 of Clubs, 6 of Spades, 8 of Diamonds]</t>
+          <t>[9 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 7 of Spades, 5 of Clubs]</t>
+          <t>[8 of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6 of Spades, Queen of Spades, King of Diamonds]</t>
+          <t>[8 of Diamonds, 6 of Hearts, 4 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 2 of Spades, 6 of Diamonds, 4 of Diamonds]</t>
+          <t>[10 of Spades, King of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2850,103 +2757,92 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 6 of Clubs, 4 of Hearts, King of Clubs]</t>
+          <t>[8 of Hearts, Jack of Spades, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 8 of Clubs, 5 of Clubs, 5 of Hearts]</t>
+          <t>[Jack of Clubs, 3 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 7 of Diamonds, 9 of Clubs]</t>
+          <t>[2 of Diamonds, 8 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Jack of Spades]</t>
+          <t>[King of Diamonds, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 10 of Hearts]</t>
+          <t>[9 of Clubs, 4 of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 7 of Diamonds, 3 of Diamonds]</t>
+          <t>[Queen of Diamonds, 6 of Diamonds, 3 of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 10 of Clubs, 4 of Spades, 1 of Clubs, 9 of Spades]</t>
+          <t>[7 of Hearts, 1 of Hearts, 5 of Spades, 2 of Hearts, 8 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 3 of Hearts, 2 of Clubs, 7 of Hearts]</t>
+          <t>[5 of Diamonds, 1 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>% 25.00</t>
         </is>
       </c>
     </row>
@@ -2999,19 +2895,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1 of Spades, 4 of Diamonds, 2 of Clubs, 7 of Clubs, 2 of Spades, 7 of Spades]</t>
+          <t>[3 of Hearts, King of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 4 of Spades, 9 of Diamonds]</t>
+          <t>[5 of Clubs, 2 of Clubs, 6 of Clubs, 2 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3022,42 +2918,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 8 of Clubs, 1 of Hearts, 9 of Spades]</t>
+          <t>[5 of Hearts, 5 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 7 of Diamonds, 6 of Clubs]</t>
+          <t>[Queen of Diamonds, King of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2 of Spades, 10 of Diamonds, 7 of Hearts]</t>
+          <t>[2 of Clubs, 9 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[8 of Spades, 6 of Hearts, Queen of Diamonds]</t>
+          <t>[6 of Clubs, 8 of Hearts, 3 of Hearts]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3068,19 +2964,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Jack of Hearts, 9 of Spades]</t>
+          <t>[9 of Diamonds, Queen of Hearts, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Clubs, Jack of Clubs]</t>
+          <t>[10 of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3091,39 +2987,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[King of Hearts, 7 of Hearts, 2 of Diamonds]</t>
+          <t>[4 of Diamonds, 1 of Hearts, King of Diamonds, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[5 of Spades, 1 of Diamonds, 1 of Diamonds]</t>
+          <t>[8 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 2 of Hearts, Jack of Clubs, 3 of Clubs, 6 of Diamonds]</t>
+          <t>[9 of Spades, 3 of Spades, 6 of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[10 of Spades, 2 of Hearts, 8 of Clubs]</t>
+          <t>[King of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -3137,19 +3033,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Hearts, Jack of Hearts, 10 of Clubs]</t>
+          <t>[10 of Hearts, 7 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Queen of Spades]</t>
+          <t>[4 of Spades, 3 of Diamonds, 3 of Spades, Queen of Spades]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3160,19 +3056,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, Queen of Clubs, 9 of Clubs]</t>
+          <t>[10 of Clubs, 2 of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 1 of Spades, Queen of Clubs, 2 of Clubs, 5 of Spades]</t>
+          <t>[2 of Spades, 6 of Diamonds, 4 of Clubs, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3183,65 +3079,65 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 4 of Spades, Queen of Diamonds]</t>
+          <t>[2 of Diamonds, Jack of Hearts, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 1 of Hearts]</t>
+          <t>[King of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 5 of Clubs, 4 of Hearts, King of Spades]</t>
+          <t>[5 of Spades, 5 of Spades, 1 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[6 of Spades, King of Diamonds, 3 of Spades]</t>
+          <t>[5 of Diamonds, 9 of Clubs, 3 of Clubs]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6 of Spades, 7 of Diamonds, 10 of Diamonds]</t>
+          <t>[6 of Spades, King of Clubs, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[9 of Hearts, Queen of Spades]</t>
+          <t>[8 of Diamonds, 8 of Spades, 7 of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
         <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3252,19 +3148,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[4 of Clubs, King of Clubs, 5 of Diamonds]</t>
+          <t>[1 of Spades, 8 of Spades, 10 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[King of Hearts, 2 of Diamonds, 8 of Spades]</t>
+          <t>[7 of Hearts, 4 of Hearts, 1 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3275,80 +3171,92 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 3 of Spades, King of Clubs]</t>
+          <t>[2 of Diamonds, 1 of Clubs, 3 of Diamonds, Queen of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[3 of Hearts, King of Spades, Jack of Spades]</t>
+          <t>[Jack of Diamonds, 4 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 3 of Diamonds, 10 of Spades]</t>
+          <t>[9 of Hearts, 7 of Spades, 1 of Hearts, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 1 of Clubs]</t>
+          <t>[Jack of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 1 of Clubs, King of Diamonds, Jack of Spades]</t>
+          <t>[Jack of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[7 of Spades, Queen of Hearts]</t>
+          <t>[4 of Spades, Jack of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, King of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>% 20.00</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -3358,6 +3266,397 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Player Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 7 of Hearts, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 4 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 8 of Hearts, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 3 of Clubs, 2 of Clubs, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 3 of Spades, 1 of Spades, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 10 of Clubs, 4 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 8 of Clubs, 2 of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 10 of Clubs, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 5 of Diamonds, Queen of Diamonds, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 9 of Clubs, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 2 of Hearts, 1 of Hearts, 10 of Hearts, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 5 of Diamonds, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 2 of Clubs, 5 of Hearts, 1 of Diamonds, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 3 of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 1 of Spades, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 8 of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, Queen of Clubs, 5 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 10 of Diamonds, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 2 of Spades, King of Spades]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 6 of Hearts, 2 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 7 of Clubs, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 3 of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 5 of Clubs, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 9 of Diamonds, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 6 of Clubs, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3401,19 +3700,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, Jack of Diamonds]</t>
+          <t>[10 of Diamonds, 10 of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[8 of Spades, 5 of Diamonds, 5 of Clubs]</t>
+          <t>[9 of Diamonds, 4 of Clubs, 1 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3424,42 +3723,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 2 of Spades, Queen of Clubs]</t>
+          <t>[7 of Hearts, 9 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[7 of Hearts, Jack of Spades]</t>
+          <t>[1 of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 7 of Diamonds, 1 of Diamonds, 4 of Hearts]</t>
+          <t>[6 of Diamonds, 10 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 10 of Spades]</t>
+          <t>[7 of Hearts, 7 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3470,88 +3769,88 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 5 of Diamonds, 1 of Clubs, 9 of Spades]</t>
+          <t>[King of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 6 of Hearts, Queen of Hearts]</t>
+          <t>[6 of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 4 of Diamonds, 7 of Spades]</t>
+          <t>[3 of Spades, 2 of Diamonds, Jack of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[4 of Spades, 3 of Diamonds, 10 of Spades]</t>
+          <t>[8 of Diamonds, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
         <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[4 of Spades, King of Diamonds, 9 of Diamonds]</t>
+          <t>[5 of Clubs, King of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 5 of Hearts, 7 of Clubs, 6 of Diamonds]</t>
+          <t>[Queen of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 9 of Diamonds]</t>
+          <t>[1 of Clubs, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 2 of Hearts, 8 of Diamonds]</t>
+          <t>[3 of Hearts, 6 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
         <v>19</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3562,19 +3861,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 4 of Diamonds, 3 of Clubs, Queen of Diamonds]</t>
+          <t>[8 of Hearts, 10 of Clubs, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 4 of Hearts, 8 of Clubs]</t>
+          <t>[9 of Clubs, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3585,19 +3884,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 3 of Spades, 2 of Diamonds, Queen of Clubs]</t>
+          <t>[7 of Diamonds, 3 of Diamonds, 9 of Hearts, 4 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 6 of Clubs, 1 of Hearts, King of Diamonds]</t>
+          <t>[1 of Diamonds, 5 of Spades, 2 of Clubs]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3608,42 +3907,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 8 of Diamonds, 6 of Spades, 1 of Diamonds]</t>
+          <t>[4 of Spades, 8 of Spades, 2 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 1 of Spades, King of Clubs]</t>
+          <t>[9 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
         <v>19</v>
       </c>
-      <c r="D11" t="n">
-        <v>22</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[9 of Spades, 6 of Hearts, Jack of Hearts]</t>
+          <t>[9 of Spades, 5 of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 1 of Hearts]</t>
+          <t>[3 of Hearts, 8 of Diamonds, 4 of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3654,16 +3953,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[King of Clubs, 3 of Hearts, 5 of Clubs, King of Hearts]</t>
+          <t>[Queen of Spades, 2 of Spades, King of Spades]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[9 of Clubs, Queen of Diamonds]</t>
+          <t>[4 of Clubs, Queen of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
         <v>19</v>
@@ -3677,42 +3976,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Spades, 10 of Hearts, 6 of Clubs, 2 of Clubs]</t>
+          <t>[3 of Diamonds, Queen of Diamonds, 6 of Spades, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 2 of Diamonds, 5 of Hearts, 10 of Diamonds]</t>
+          <t>[3 of Spades, 6 of Diamonds, 2 of Clubs, 1 of Diamonds, 1 of Hearts]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[5 of Spades, 1 of Spades, King of Spades, 8 of Spades]</t>
+          <t>[King of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 7 of Spades]</t>
+          <t>[Jack of Clubs, 3 of Clubs, 8 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3723,459 +4022,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 4 of Clubs, Jack of Clubs, 3 of Spades]</t>
+          <t>[7 of Diamonds, 2 of Hearts, 2 of Diamonds, 5 of Spades, 1 of Hearts, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 3 of Clubs, 10 of Clubs]</t>
+          <t>[3 of Clubs, 7 of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>% 46.67</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Hand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Hand</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[Jack of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[6 of Spades, King of Spades, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 9 of Hearts, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 6 of Clubs, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 5 of Spades, 8 of Clubs, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[10 of Spades, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 5 of Hearts, 7 of Spades, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, King of Clubs, 3 of Diamonds, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 8 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>28</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 4 of Clubs, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 4 of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 6 of Diamonds, 7 of Clubs, King of Spades]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 2 of Diamonds, 3 of Clubs, Queen of Hearts, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, King of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 4 of Diamonds, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 5 of Diamonds, 4 of Hearts, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, 7 of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[Jack of Diamonds, 2 of Diamonds, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>27</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 2 of Spades, 3 of Hearts, 5 of Clubs, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 7 of Hearts, 6 of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>21</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 8 of Diamonds, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[1 of Spades, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>21</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[3 of Spades, 8 of Hearts, 10 of Spades]</t>
+          <t>[Queen of Clubs, 6 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 7 of Spades, 5 of Diamonds]</t>
+          <t>[4 of Diamonds, 5 of Diamonds, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>% 43.75</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4228,16 +4114,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 7 of Spades, 8 of Hearts]</t>
+          <t>[King of Hearts, 10 of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 1 of Diamonds]</t>
+          <t>[1 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>21</v>
@@ -4251,16 +4137,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 6 of Hearts, Jack of Diamonds]</t>
+          <t>[Jack of Clubs, 5 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 7 of Hearts]</t>
+          <t>[10 of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
@@ -4274,42 +4160,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Queen of Clubs, 8 of Clubs]</t>
+          <t>[King of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 1 of Clubs, 2 of Diamonds]</t>
+          <t>[4 of Spades, 2 of Diamonds, King of Clubs, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 7 of Clubs, 10 of Clubs]</t>
+          <t>[8 of Clubs, 10 of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[6 of Spades, Jack of Diamonds, Jack of Clubs]</t>
+          <t>[3 of Clubs, Jack of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4320,19 +4206,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 5 of Diamonds, Queen of Spades, 6 of Diamonds]</t>
+          <t>[2 of Clubs, 1 of Spades, 4 of Diamonds, Jack of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[King of Clubs, Queen of Clubs]</t>
+          <t>[1 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -4343,65 +4229,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2 of Spades, 4 of Clubs, 5 of Hearts, Jack of Spades]</t>
+          <t>[8 of Spades, 7 of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 5 of Hearts, 9 of Clubs]</t>
+          <t>[3 of Spades, 2 of Clubs, Jack of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6 of Spades, 8 of Spades, 6 of Clubs]</t>
+          <t>[6 of Spades, 2 of Diamonds, 10 of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[5 of Spades, 5 of Clubs, 9 of Spades]</t>
+          <t>[4 of Hearts, 5 of Hearts, 7 of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 3 of Clubs, 5 of Clubs, 8 of Spades]</t>
+          <t>[1 of Diamonds, Jack of Spades]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 3 of Diamonds, 4 of Clubs]</t>
+          <t>[King of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
         <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4412,65 +4298,65 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Spades, Jack of Spades]</t>
+          <t>[3 of Diamonds, 1 of Hearts, 8 of Diamonds, 5 of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[5 of Spades, 3 of Clubs, 2 of Hearts, 8 of Clubs]</t>
+          <t>[10 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, Jack of Hearts]</t>
+          <t>[6 of Clubs, 9 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 9 of Hearts, 1 of Spades, 10 of Spades]</t>
+          <t>[9 of Spades, 4 of Spades, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 10 of Diamonds, Queen of Hearts]</t>
+          <t>[5 of Diamonds, 2 of Spades, 1 of Hearts, 7 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 9 of Spades, 2 of Hearts]</t>
+          <t>[8 of Hearts, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4481,88 +4367,88 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 1 of Diamonds, 1 of Hearts]</t>
+          <t>[4 of Clubs, 6 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[4 of Hearts, King of Hearts, 7 of Spades]</t>
+          <t>[6 of Hearts, 2 of Spades, 6 of Clubs, 6 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 3 of Spades, 9 of Clubs]</t>
+          <t>[3 of Hearts, 8 of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 2 of Spades, 7 of Diamonds, 10 of Spades]</t>
+          <t>[3 of Spades, 2 of Hearts, 1 of Diamonds, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Spades, 6 of Clubs, 2 of Clubs, 8 of Diamonds]</t>
+          <t>[Queen of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 10 of Hearts]</t>
+          <t>[King of Spades, 5 of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 9 of Diamonds]</t>
+          <t>[5 of Hearts, 7 of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, King of Spades, 6 of Diamonds]</t>
+          <t>[8 of Clubs, 3 of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4573,34 +4459,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 9 of Hearts, 9 of Diamonds]</t>
+          <t>[5 of Diamonds, 2 of Hearts, Queen of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[3 of Spades, King of Hearts, King of Clubs]</t>
+          <t>[Jack of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>% 31.25</t>
         </is>
       </c>
     </row>
